--- a/img/预算2019.xlsx
+++ b/img/预算2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="婚" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,18 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -598,7 +609,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -630,7 +641,7 @@
       </c>
       <c r="D2">
         <f>SUM(C2:C26)</f>
-        <v>176600</v>
+        <v>136600</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -650,12 +661,13 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>60000</v>
+      <c r="B4" s="5">
+        <f>60000-40000</f>
+        <v>20000</v>
       </c>
       <c r="C4">
         <f>B4</f>
-        <v>60000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -726,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -831,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -876,7 +888,7 @@
       </c>
       <c r="F2" s="2">
         <f>E2-B7</f>
-        <v>-31200</v>
+        <v>8800</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>32</v>
@@ -908,7 +920,7 @@
       </c>
       <c r="B7" s="1">
         <f>SUM(B8:B19)</f>
-        <v>330200</v>
+        <v>290200</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -917,7 +929,7 @@
       </c>
       <c r="B8">
         <f>婚!D2</f>
-        <v>176600</v>
+        <v>136600</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -974,6 +986,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>10000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/img/预算2019.xlsx
+++ b/img/预算2019.xlsx
@@ -1,32 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2C9C5F-CE4E-44A5-958E-A539A86CEDBF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="婚" sheetId="1" r:id="rId1"/>
     <sheet name="装" sheetId="2" r:id="rId2"/>
     <sheet name="怎么办" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>机票</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19赤字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>过年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,22 +205,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>婚庆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>衣服</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>养车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19年底结余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000年终20000礼金32000住房公积金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚庆酒店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -244,21 +254,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
@@ -277,6 +272,22 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -311,10 +322,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -605,11 +616,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -641,7 +652,7 @@
       </c>
       <c r="D2">
         <f>SUM(C2:C26)</f>
-        <v>136600</v>
+        <v>146600</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -661,13 +672,13 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
-        <f>60000-40000</f>
-        <v>20000</v>
+      <c r="B4" s="3">
+        <f>60000-40000+10000</f>
+        <v>30000</v>
       </c>
       <c r="C4">
         <f>B4</f>
-        <v>20000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -705,7 +716,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>10000</v>
@@ -713,7 +724,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>10000</v>
@@ -721,7 +732,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>5000</v>
@@ -735,10 +746,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -840,16 +851,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="34.125" customWidth="1"/>
     <col min="5" max="5" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -883,15 +895,15 @@
         <v>102000</v>
       </c>
       <c r="E2">
-        <f>C2+C4+C5</f>
-        <v>299000</v>
-      </c>
-      <c r="F2" s="2">
+        <f>C2+C4+C5+38000</f>
+        <v>337000</v>
+      </c>
+      <c r="F2" s="4">
         <f>E2-B7</f>
-        <v>8800</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>32</v>
+        <v>39800</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -913,6 +925,9 @@
         <f>60000+20000+32000</f>
         <v>112000</v>
       </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -920,7 +935,7 @@
       </c>
       <c r="B7" s="1">
         <f>SUM(B8:B19)</f>
-        <v>290200</v>
+        <v>297200</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -929,7 +944,7 @@
       </c>
       <c r="B8">
         <f>婚!D2</f>
-        <v>136600</v>
+        <v>146600</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -937,15 +952,15 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <f>6000*2</f>
-        <v>12000</v>
+        <f>6000*2+1000</f>
+        <v>13000</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <f>16000-6000</f>
         <v>10000</v>
       </c>
@@ -960,25 +975,25 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <f>6000*2</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12">
-        <f>8000*2</f>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <f>5000*2-10000</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>15600</v>
